--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Epha4-Efnb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Epha4-Efnb1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.856403666666667</v>
+        <v>8.081040666666667</v>
       </c>
       <c r="H2">
-        <v>8.569210999999999</v>
+        <v>24.243122</v>
       </c>
       <c r="I2">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="J2">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.896501666666667</v>
+        <v>13.16594766666667</v>
       </c>
       <c r="N2">
-        <v>11.689505</v>
+        <v>39.497843</v>
       </c>
       <c r="O2">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="P2">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="Q2">
-        <v>11.12998164783945</v>
+        <v>106.3945585095385</v>
       </c>
       <c r="R2">
-        <v>100.169834830555</v>
+        <v>957.5510265858461</v>
       </c>
       <c r="S2">
-        <v>0.09473877223731204</v>
+        <v>0.32352705711748</v>
       </c>
       <c r="T2">
-        <v>0.09473877223731203</v>
+        <v>0.32352705711748</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.856403666666667</v>
+        <v>8.081040666666667</v>
       </c>
       <c r="H3">
-        <v>8.569210999999999</v>
+        <v>24.243122</v>
       </c>
       <c r="I3">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="J3">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.71172</v>
       </c>
       <c r="O3">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="P3">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="Q3">
-        <v>9.24686420588</v>
+        <v>26.16026808776</v>
       </c>
       <c r="R3">
-        <v>83.22177785291998</v>
+        <v>235.44241278984</v>
       </c>
       <c r="S3">
-        <v>0.07870961423195832</v>
+        <v>0.07954875386863461</v>
       </c>
       <c r="T3">
-        <v>0.07870961423195832</v>
+        <v>0.07954875386863461</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.856403666666667</v>
+        <v>8.081040666666667</v>
       </c>
       <c r="H4">
-        <v>8.569210999999999</v>
+        <v>24.243122</v>
       </c>
       <c r="I4">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="J4">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>2.565792333333333</v>
       </c>
       <c r="N4">
-        <v>7.697377</v>
+        <v>7.697376999999999</v>
       </c>
       <c r="O4">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="P4">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="Q4">
-        <v>7.328938628838555</v>
+        <v>20.73427218788822</v>
       </c>
       <c r="R4">
-        <v>65.960447659547</v>
+        <v>186.608449690994</v>
       </c>
       <c r="S4">
-        <v>0.06238416822848566</v>
+        <v>0.06304925887557394</v>
       </c>
       <c r="T4">
-        <v>0.06238416822848565</v>
+        <v>0.06304925887557396</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>21.000902</v>
       </c>
       <c r="I5">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294714</v>
       </c>
       <c r="J5">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294715</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.896501666666667</v>
+        <v>13.16594766666667</v>
       </c>
       <c r="N5">
-        <v>11.689505</v>
+        <v>39.497843</v>
       </c>
       <c r="O5">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="P5">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="Q5">
-        <v>27.27668321483445</v>
+        <v>92.16559222826514</v>
       </c>
       <c r="R5">
-        <v>245.4901489335101</v>
+        <v>829.4903300543862</v>
       </c>
       <c r="S5">
-        <v>0.232180030501771</v>
+        <v>0.2802592842981445</v>
       </c>
       <c r="T5">
-        <v>0.232180030501771</v>
+        <v>0.2802592842981445</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>21.000902</v>
       </c>
       <c r="I6">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294714</v>
       </c>
       <c r="J6">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294715</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>9.71172</v>
       </c>
       <c r="O6">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="P6">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="Q6">
         <v>22.66165333016</v>
@@ -818,10 +818,10 @@
         <v>203.95487997144</v>
       </c>
       <c r="S6">
-        <v>0.1928967433458182</v>
+        <v>0.06891008444445879</v>
       </c>
       <c r="T6">
-        <v>0.1928967433458182</v>
+        <v>0.0689100844444588</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>21.000902</v>
       </c>
       <c r="I7">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294714</v>
       </c>
       <c r="J7">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294715</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,13 +865,13 @@
         <v>2.565792333333333</v>
       </c>
       <c r="N7">
-        <v>7.697377</v>
+        <v>7.697376999999999</v>
       </c>
       <c r="O7">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="P7">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="Q7">
         <v>17.96131778156156</v>
@@ -880,10 +880,10 @@
         <v>161.651860034054</v>
       </c>
       <c r="S7">
-        <v>0.1528873315545552</v>
+        <v>0.05461719438686811</v>
       </c>
       <c r="T7">
-        <v>0.1528873315545552</v>
+        <v>0.05461719438686813</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>6.765884</v>
       </c>
       <c r="I8">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="J8">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.896501666666667</v>
+        <v>13.16594766666667</v>
       </c>
       <c r="N8">
-        <v>11.689505</v>
+        <v>39.497843</v>
       </c>
       <c r="O8">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="P8">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="Q8">
-        <v>8.78775942749111</v>
+        <v>29.69309155424578</v>
       </c>
       <c r="R8">
-        <v>79.08983484742001</v>
+        <v>267.237823988212</v>
       </c>
       <c r="S8">
-        <v>0.07480169915994293</v>
+        <v>0.09029144593333499</v>
       </c>
       <c r="T8">
-        <v>0.07480169915994293</v>
+        <v>0.09029144593333499</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>6.765884</v>
       </c>
       <c r="I9">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="J9">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>9.71172</v>
       </c>
       <c r="O9">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="P9">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="Q9">
         <v>7.300930106719999</v>
@@ -1004,10 +1004,10 @@
         <v>65.70837096048</v>
       </c>
       <c r="S9">
-        <v>0.06214575876100835</v>
+        <v>0.02220083869642421</v>
       </c>
       <c r="T9">
-        <v>0.06214575876100835</v>
+        <v>0.02220083869642421</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>6.765884</v>
       </c>
       <c r="I10">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="J10">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>2.565792333333333</v>
       </c>
       <c r="N10">
-        <v>7.697377</v>
+        <v>7.697376999999999</v>
       </c>
       <c r="O10">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="P10">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="Q10">
-        <v>5.786617765140889</v>
+        <v>5.786617765140887</v>
       </c>
       <c r="R10">
-        <v>52.079559886268</v>
+        <v>52.07955988626799</v>
       </c>
       <c r="S10">
-        <v>0.04925588197914831</v>
+        <v>0.0175960823790807</v>
       </c>
       <c r="T10">
-        <v>0.04925588197914831</v>
+        <v>0.01759608237908071</v>
       </c>
     </row>
   </sheetData>
